--- a/public/storage/externo/fmt_lista_denuncias.xlsx
+++ b/public/storage/externo/fmt_lista_denuncias.xlsx
@@ -1,40 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96216D62-E2BC-4C50-BF9E-AA091A395614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="17580" windowHeight="7560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>APELLIDO PATERNO</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>DOMICILIO</t>
+  </si>
+  <si>
+    <t>TELEFONOS</t>
+  </si>
+  <si>
+    <t>FECHA INGRESO</t>
+  </si>
+  <si>
+    <t>DEPENDENCIA</t>
+  </si>
+  <si>
+    <t>SERVICIO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
+    <t>PRIORIDAD</t>
+  </si>
+  <si>
+    <t>ORIGEN</t>
+  </si>
+  <si>
+    <t>ESTATUS</t>
+  </si>
+  <si>
+    <t>APELLIDO MATERNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               DENUNCIAS CIUDADANAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENUNCIA CIUDADANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA Y HORA DE IMPRESIÓN: </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -42,12 +164,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -58,8 +506,59 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>366179</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="366179" y="66675"/>
+          <a:ext cx="1672171" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,44 +572,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -138,14 +637,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -173,6 +689,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -184,203 +717,1091 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="23" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="15" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" style="44" customWidth="1"/>
+    <col min="11" max="11" width="46.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="8.5703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="52"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="50"/>
+      <c r="M1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>